--- a/zhangsen2zhangtuo.xlsx
+++ b/zhangsen2zhangtuo.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28705"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\zhangtuo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC49486-BC46-403D-AEC2-06702E67ECA7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="14436" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -59,7 +65,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -105,7 +111,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -409,32 +415,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="77" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="28.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -457,7 +463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
       </c>

--- a/zhangsen2zhangtuo.xlsx
+++ b/zhangsen2zhangtuo.xlsx
@@ -1,34 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\zhangtuo\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC49486-BC46-403D-AEC2-06702E67ECA7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28705"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="14436" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,14 +53,18 @@
   </si>
   <si>
     <t xml:space="preserve">利用mac电脑练习 ls   man tree </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习rm ls man mkdir touch命令</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +75,24 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -100,8 +116,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -110,8 +132,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -415,32 +439,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="77" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" customWidth="1"/>
-    <col min="7" max="7" width="28.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -463,7 +487,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -472,11 +496,23 @@
       </c>
       <c r="D2">
         <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>20190309</v>
+      </c>
+      <c r="D3">
+        <v>20190309</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/zhangsen2zhangtuo.xlsx
+++ b/zhangsen2zhangtuo.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14440" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="三月份" sheetId="1" r:id="rId1"/>
+    <sheet name="帮助" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,6 +58,14 @@
   </si>
   <si>
     <t>学习rm ls man mkdir touch命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssh zhangtuo@192.168.0.105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhangtuo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -519,4 +528,36 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="43.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/zhangsen2zhangtuo.xlsx
+++ b/zhangsen2zhangtuo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14440" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14440"/>
   </bookViews>
   <sheets>
     <sheet name="三月份" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,6 +66,18 @@
   </si>
   <si>
     <t>zhangtuo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git pull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打字 第一课并提交。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -456,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -518,6 +530,11 @@
         <v>20190309</v>
       </c>
     </row>
+    <row r="4" spans="1:7">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -532,10 +549,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -549,6 +566,14 @@
       </c>
       <c r="B1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
